--- a/SchedulingData/dynamic9/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_4.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.3</v>
+        <v>63.6</v>
       </c>
       <c r="E2" t="n">
-        <v>26.36</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.02</v>
+        <v>68.3</v>
       </c>
       <c r="E3" t="n">
-        <v>25.968</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>56.64</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>26.516</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>145.3</v>
       </c>
       <c r="E5" t="n">
-        <v>25.58</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="6">
@@ -542,131 +542,131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56.64</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>118.74</v>
+        <v>64.52</v>
       </c>
       <c r="E6" t="n">
-        <v>22.436</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.28</v>
+        <v>91.2</v>
       </c>
       <c r="E7" t="n">
-        <v>26.172</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.28</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>112.02</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
-        <v>22.588</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112.02</v>
+        <v>64.52</v>
       </c>
       <c r="D9" t="n">
-        <v>184.22</v>
+        <v>118.24</v>
       </c>
       <c r="E9" t="n">
-        <v>18.988</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.3</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>143.78</v>
+        <v>155.24</v>
       </c>
       <c r="E10" t="n">
-        <v>23.412</v>
+        <v>18.436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.02</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>125.24</v>
+        <v>45.28</v>
       </c>
       <c r="E11" t="n">
-        <v>22.756</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>45.28</v>
       </c>
       <c r="D12" t="n">
-        <v>105.84</v>
+        <v>97.38</v>
       </c>
       <c r="E12" t="n">
-        <v>22.236</v>
+        <v>22.092</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125.24</v>
+        <v>91.2</v>
       </c>
       <c r="D13" t="n">
-        <v>177.02</v>
+        <v>152.82</v>
       </c>
       <c r="E13" t="n">
-        <v>18.708</v>
+        <v>20.508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>68.3</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6</v>
+        <v>117.68</v>
       </c>
       <c r="E14" t="n">
-        <v>25.84</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>184.22</v>
+        <v>155.24</v>
       </c>
       <c r="D15" t="n">
-        <v>247.8</v>
+        <v>226.62</v>
       </c>
       <c r="E15" t="n">
-        <v>16.7</v>
+        <v>14.388</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>118.74</v>
+        <v>118.24</v>
       </c>
       <c r="D16" t="n">
-        <v>170.76</v>
+        <v>183.14</v>
       </c>
       <c r="E16" t="n">
-        <v>19.844</v>
+        <v>18.096</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.78</v>
+        <v>117.68</v>
       </c>
       <c r="D17" t="n">
-        <v>197.62</v>
+        <v>170.38</v>
       </c>
       <c r="E17" t="n">
-        <v>19.668</v>
+        <v>18.412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58.6</v>
+        <v>183.14</v>
       </c>
       <c r="D18" t="n">
-        <v>109.62</v>
+        <v>248.74</v>
       </c>
       <c r="E18" t="n">
-        <v>22.848</v>
+        <v>13.176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>109.62</v>
+        <v>97.38</v>
       </c>
       <c r="D19" t="n">
-        <v>162.52</v>
+        <v>163.58</v>
       </c>
       <c r="E19" t="n">
-        <v>19.188</v>
+        <v>19.052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>162.52</v>
+        <v>248.74</v>
       </c>
       <c r="D20" t="n">
-        <v>241.04</v>
+        <v>312.32</v>
       </c>
       <c r="E20" t="n">
-        <v>14.456</v>
+        <v>10.888</v>
       </c>
     </row>
     <row r="21">
@@ -827,74 +827,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>241.04</v>
+        <v>226.62</v>
       </c>
       <c r="D21" t="n">
-        <v>305.94</v>
+        <v>270.2</v>
       </c>
       <c r="E21" t="n">
-        <v>11.076</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>105.84</v>
+        <v>163.58</v>
       </c>
       <c r="D22" t="n">
-        <v>159.96</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
-        <v>18.444</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>197.62</v>
+        <v>152.82</v>
       </c>
       <c r="D23" t="n">
-        <v>236.2</v>
+        <v>220.32</v>
       </c>
       <c r="E23" t="n">
-        <v>16.94</v>
+        <v>16.368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>305.94</v>
+        <v>145.3</v>
       </c>
       <c r="D24" t="n">
-        <v>356.82</v>
+        <v>201.22</v>
       </c>
       <c r="E24" t="n">
-        <v>8.108000000000001</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="25">
@@ -903,131 +903,131 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>236.2</v>
+        <v>170.38</v>
       </c>
       <c r="D25" t="n">
-        <v>302.9</v>
+        <v>212.64</v>
       </c>
       <c r="E25" t="n">
-        <v>13.9</v>
+        <v>15.816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>159.96</v>
+        <v>212.64</v>
       </c>
       <c r="D26" t="n">
-        <v>225.96</v>
+        <v>289.78</v>
       </c>
       <c r="E26" t="n">
-        <v>12.984</v>
+        <v>12.232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>177.02</v>
+        <v>201.22</v>
       </c>
       <c r="D27" t="n">
-        <v>264.12</v>
+        <v>251.9</v>
       </c>
       <c r="E27" t="n">
-        <v>14.568</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>225.96</v>
+        <v>217</v>
       </c>
       <c r="D28" t="n">
-        <v>306.26</v>
+        <v>270.74</v>
       </c>
       <c r="E28" t="n">
-        <v>8.064</v>
+        <v>12.096</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>170.76</v>
+        <v>251.9</v>
       </c>
       <c r="D29" t="n">
-        <v>233.46</v>
+        <v>287.98</v>
       </c>
       <c r="E29" t="n">
-        <v>15.704</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>233.46</v>
+        <v>220.32</v>
       </c>
       <c r="D30" t="n">
-        <v>275.72</v>
+        <v>274.96</v>
       </c>
       <c r="E30" t="n">
-        <v>13.108</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>264.12</v>
+        <v>270.2</v>
       </c>
       <c r="D31" t="n">
-        <v>333.4</v>
+        <v>327.32</v>
       </c>
       <c r="E31" t="n">
-        <v>10.76</v>
+        <v>9.068</v>
       </c>
     </row>
   </sheetData>
